--- a/biology/Botanique/Consoude_(plante_médicinale)/Consoude_(plante_médicinale).xlsx
+++ b/biology/Botanique/Consoude_(plante_médicinale)/Consoude_(plante_médicinale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Consoude_(plante_m%C3%A9dicinale)</t>
+          <t>Consoude_(plante_médicinale)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot consoude est un terme du vocabulaire courant qui désigne plusieurs espèces de plantes médicinales. Ce nom ne correspondant pas à un niveau précis de la classification scientifique des espèces, il s'agit d'un nom vernaculaire dont le sens est ambigu en biologie. Toutefois, en disant « consoude » les francophones font le plus souvent référence à la Consoude officinale (Symphytum officinale) appelée aussi Grande consoude.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Consoude_(plante_m%C3%A9dicinale)</t>
+          <t>Consoude_(plante_médicinale)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les caractéristiques générales des consoudes de cette liste sont limitées à des propriétés supposées cicatrisantes, favorisant la coagulation du sang ou antiseptiques. Certaines étaient donc classées au Moyen-Âge dans un genre nommé Consolida, qui incluait des Delphinium et des Symphytum[1]. Par exemple Symphytum officinale a été nommée anciennement Consolida major[2] et Delphinium consolida est synonyme de Consolida regalis[3]. Selon l'espèce, ces plantes présentent donc des différences importantes : voir les articles détaillés pour plus d'informations sur leur description ou leur utilisation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les caractéristiques générales des consoudes de cette liste sont limitées à des propriétés supposées cicatrisantes, favorisant la coagulation du sang ou antiseptiques. Certaines étaient donc classées au Moyen-Âge dans un genre nommé Consolida, qui incluait des Delphinium et des Symphytum. Par exemple Symphytum officinale a été nommée anciennement Consolida major et Delphinium consolida est synonyme de Consolida regalis. Selon l'espèce, ces plantes présentent donc des différences importantes : voir les articles détaillés pour plus d'informations sur leur description ou leur utilisation.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Consoude_(plante_m%C3%A9dicinale)</t>
+          <t>Consoude_(plante_médicinale)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,37 +556,39 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés[4] en français. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et figurent donc plusieurs fois dans cette liste. Les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. 
 En gras, les espèces les plus connues des francophones.
-Consoude - Diverses espèces du genre Symphytum, et hybrides Symphytum x uplandicum[5],[6], mais désigne traditionnellement l'espèce Symphytum officinale[3].
-Consoude à bulbe - Symphytum bulbosum[5],[6]
-Consoude à grandes fleurs - Symphytum grandiflorum[6]
-Consoude à nombreuses fleurs - Symphytum floribundum [5],[6]
-Consoude à tubercules - voir Consoude tubéreuse[5],[6]
-Consoude bleue - Symphytum x caeruleum[5],[6]
-Consoude bulbeuse - voir Consoude à bulbe[6]
-Consoude du Caucase (ou Consoude de Caucase) - Symphytum caucasicum[7]
-Consoude d'Hyères -  Symphytum x hyerense[5],[6]
-Consoude d'Orient - Symphytum orientale[5],[6]
-Consoude commune - voir Consoude officinale[8]
-Consoude feuillée - Symphytum x foliosum[5],[6]
-Consoude hérissée - voir Consoude rude[5],[6]
-Consoude moyenne - Ajuga reptans[3],[6]
-Consoude officinale - Symphytum officinale[3],[9],[8],[6]
-Consoude panachée - voir Consoude d'Upland[10]
-Consoude royale - Delphinium consolida[3],[6]
-Consoude rude - Symphytum asperum[11],[6]
-Consoude rugueuse - voir Consoude rude[11]
-Consoude de Russie - désigne notamment Symphytum peregrinum[3]. Toutefois le terme de « consoude de Russie » n'est pas réservé à une espèce précise. Il s'agit en réalité d'une appellation populaire fourre-tout qui comprend des variétés de grand développement pour un usage agricole, aussi bien hybrides que non, et importées de Russie en Angleterre dans le but d'un usage agricole.
-Consoude tubéreuse - Symphytum tuberosum[12],[6]
-Consoude d'Upland - Symphytum uplandicum[10]
-Consoude voyageuse - Symphytum peregrinum[3],[6] ou Symphytum uplandicum[10]
-Dauphinelle Consoude - voir Consoude royale[5],[6]
-Grande consoude - voir Consoude officinale[3],[9],[8],[5],[6]
-Petite consoude - voir Consoude moyenne[3],[6] ou Prunella vulgaris[6]</t>
+Consoude - Diverses espèces du genre Symphytum, et hybrides Symphytum x uplandicum mais désigne traditionnellement l'espèce Symphytum officinale.
+Consoude à bulbe - Symphytum bulbosum,
+Consoude à grandes fleurs - Symphytum grandiflorum
+Consoude à nombreuses fleurs - Symphytum floribundum ,
+Consoude à tubercules - voir Consoude tubéreuse,
+Consoude bleue - Symphytum x caeruleum,
+Consoude bulbeuse - voir Consoude à bulbe
+Consoude du Caucase (ou Consoude de Caucase) - Symphytum caucasicum
+Consoude d'Hyères -  Symphytum x hyerense,
+Consoude d'Orient - Symphytum orientale,
+Consoude commune - voir Consoude officinale
+Consoude feuillée - Symphytum x foliosum,
+Consoude hérissée - voir Consoude rude,
+Consoude moyenne - Ajuga reptans,
+Consoude officinale - Symphytum officinale
+Consoude panachée - voir Consoude d'Upland
+Consoude royale - Delphinium consolida,
+Consoude rude - Symphytum asperum,
+Consoude rugueuse - voir Consoude rude
+Consoude de Russie - désigne notamment Symphytum peregrinum. Toutefois le terme de « consoude de Russie » n'est pas réservé à une espèce précise. Il s'agit en réalité d'une appellation populaire fourre-tout qui comprend des variétés de grand développement pour un usage agricole, aussi bien hybrides que non, et importées de Russie en Angleterre dans le but d'un usage agricole.
+Consoude tubéreuse - Symphytum tuberosum,
+Consoude d'Upland - Symphytum uplandicum
+Consoude voyageuse - Symphytum peregrinum, ou Symphytum uplandicum
+Dauphinelle Consoude - voir Consoude royale,
+Grande consoude - voir Consoude officinale
+Petite consoude - voir Consoude moyenne, ou Prunella vulgaris</t>
         </is>
       </c>
     </row>
